--- a/Meas/figs858/diff858.xlsx
+++ b/Meas/figs858/diff858.xlsx
@@ -585,6 +585,7 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,7 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="God" xfId="1" builtinId="26"/>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3">
@@ -1718,7 +1718,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5">
         <v>-4.5979999999999999</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5">
         <v>-6.5359999999999996</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5">
         <v>-1.161</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="7">
         <v>11.291</v>
       </c>
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="15">
         <v>21.902000000000001</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3">
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="5">
         <v>-5.5179999999999998</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5">
         <v>-6.9530000000000003</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="5">
         <v>-2.0430000000000001</v>
       </c>
@@ -2701,7 +2701,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="5">
         <v>-3.9089999999999998</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="15">
         <v>17.742000000000001</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="3">
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="5">
         <v>-2.069</v>
       </c>
@@ -3139,7 +3139,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="5">
         <v>-1.8029999999999999</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="5">
         <v>-3.9359999999999999</v>
       </c>
@@ -3357,7 +3357,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="5">
         <v>-0.34</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="16">
         <v>1.97</v>
       </c>
@@ -3575,7 +3575,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="5">
         <v>3.6850000000000001</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="5">
         <v>2.3559999999999999</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="5">
         <v>-1.3080000000000001</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="5">
         <v>-4.9340000000000002</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="18">
         <v>-3.923</v>
       </c>
@@ -4231,7 +4231,7 @@
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3">
@@ -4323,7 +4323,7 @@
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="5">
         <v>-1.6279999999999999</v>
       </c>
@@ -4413,7 +4413,7 @@
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="5">
         <v>-7.9</v>
       </c>
@@ -4503,7 +4503,7 @@
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="5">
         <v>3.375</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="6">
         <v>-3.5539999999999998</v>
       </c>
@@ -4683,7 +4683,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="15">
         <v>12.916</v>
       </c>
@@ -4773,7 +4773,7 @@
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="3">
@@ -4865,7 +4865,7 @@
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="5">
         <v>0.255</v>
       </c>
@@ -4955,7 +4955,7 @@
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="5">
         <v>-1.202</v>
       </c>
@@ -5045,7 +5045,7 @@
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="7">
         <v>-3.5670000000000002</v>
       </c>
@@ -5135,7 +5135,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="5">
         <v>1.3109999999999999</v>
       </c>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="16">
         <v>0.79800000000000004</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3">
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="5">
         <v>1.651</v>
       </c>
@@ -5497,7 +5497,7 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="5">
         <v>-0.628</v>
       </c>
@@ -5587,7 +5587,7 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="5">
         <v>1.8620000000000001</v>
       </c>
@@ -5677,7 +5677,7 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="5">
         <v>-0.61399999999999999</v>
       </c>
@@ -5767,7 +5767,7 @@
       </c>
     </row>
     <row r="56" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="18">
         <v>-0.52200000000000002</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="3">
@@ -5949,7 +5949,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="5">
         <v>-0.41699999999999998</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="5">
         <v>2.444</v>
       </c>
@@ -6129,7 +6129,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="5">
         <v>1.1739999999999999</v>
       </c>
@@ -6219,7 +6219,7 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="7">
         <v>-2.1549999999999998</v>
       </c>
@@ -6309,7 +6309,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="12">
         <v>2.42</v>
       </c>
@@ -6399,7 +6399,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="3">
@@ -6442,56 +6442,56 @@
         <v>29</v>
       </c>
       <c r="V63">
-        <f>AVERAGE(B75:B80)</f>
+        <f t="shared" ref="V63:AG63" si="75">AVERAGE(B75:B80)</f>
         <v>42.393457252499999</v>
       </c>
       <c r="W63">
-        <f>AVERAGE(C75:C80)</f>
+        <f t="shared" si="75"/>
         <v>227.02321835444445</v>
       </c>
       <c r="X63">
-        <f>AVERAGE(D75:D80)</f>
+        <f t="shared" si="75"/>
         <v>21.123838062499999</v>
       </c>
       <c r="Y63">
-        <f>AVERAGE(E75:E80)</f>
+        <f t="shared" si="75"/>
         <v>38.360664571111109</v>
       </c>
       <c r="Z63">
-        <f>AVERAGE(F75:F80)</f>
+        <f t="shared" si="75"/>
         <v>245.23050102887777</v>
       </c>
       <c r="AA63">
-        <f>AVERAGE(G75:G80)</f>
+        <f t="shared" si="75"/>
         <v>4.9279608996000004</v>
       </c>
       <c r="AB63">
-        <f>AVERAGE(H75:H80)</f>
+        <f t="shared" si="75"/>
         <v>19.937540984024999</v>
       </c>
       <c r="AC63">
-        <f>AVERAGE(I75:I80)</f>
+        <f t="shared" si="75"/>
         <v>33.230479345802785</v>
       </c>
       <c r="AD63">
-        <f>AVERAGE(J75:J80)</f>
+        <f t="shared" si="75"/>
         <v>8.3257783504694451</v>
       </c>
       <c r="AE63">
-        <f>AVERAGE(K75:K80)</f>
+        <f t="shared" si="75"/>
         <v>8.5953274234694454</v>
       </c>
       <c r="AF63">
-        <f>AVERAGE(L75:L80)</f>
+        <f t="shared" si="75"/>
         <v>136.43440973890006</v>
       </c>
       <c r="AG63">
-        <f>AVERAGE(M75:M80)</f>
+        <f t="shared" si="75"/>
         <v>41.532410448899995</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="5">
         <v>1.42</v>
       </c>
@@ -6532,56 +6532,56 @@
         <v>30</v>
       </c>
       <c r="V64">
-        <f>((B75-V63)^2+(B76-V63)^2+(B77-V63)^2+(B78-V63)^2+(B79-V63)^2+(B80-V63)^2)/6</f>
+        <f t="shared" ref="V64:AG64" si="76">((B75-V63)^2+(B76-V63)^2+(B77-V63)^2+(B78-V63)^2+(B79-V63)^2+(B80-V63)^2)/6</f>
         <v>1363.4100888808407</v>
       </c>
       <c r="W64">
-        <f>((C75-W63)^2+(C76-W63)^2+(C77-W63)^2+(C78-W63)^2+(C79-W63)^2+(C80-W63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>45168.578828160265</v>
       </c>
       <c r="X64">
-        <f>((D75-X63)^2+(D76-X63)^2+(D77-X63)^2+(D78-X63)^2+(D79-X63)^2+(D80-X63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>245.06821696860175</v>
       </c>
       <c r="Y64">
-        <f>((E75-Y63)^2+(E76-Y63)^2+(E77-Y63)^2+(E78-Y63)^2+(E79-Y63)^2+(E80-Y63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>1485.7287911393967</v>
       </c>
       <c r="Z64">
-        <f>((F75-Z63)^2+(F76-Z63)^2+(F77-Z63)^2+(F78-Z63)^2+(F79-Z63)^2+(F80-Z63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>50017.619691679756</v>
       </c>
       <c r="AA64">
-        <f>((G75-AA63)^2+(G76-AA63)^2+(G77-AA63)^2+(G78-AA63)^2+(G79-AA63)^2+(G80-AA63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>15.076424045335239</v>
       </c>
       <c r="AB64">
-        <f>((H75-AB63)^2+(H76-AB63)^2+(H77-AB63)^2+(H78-AB63)^2+(H79-AB63)^2+(H80-AB63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>301.57922252005983</v>
       </c>
       <c r="AC64">
-        <f>((I75-AC63)^2+(I76-AC63)^2+(I77-AC63)^2+(I78-AC63)^2+(I79-AC63)^2+(I80-AC63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>932.89463889792751</v>
       </c>
       <c r="AD64">
-        <f>((J75-AD63)^2+(J76-AD63)^2+(J77-AD63)^2+(J78-AD63)^2+(J79-AD63)^2+(J80-AD63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>34.046772157817713</v>
       </c>
       <c r="AE64">
-        <f>((K75-AE63)^2+(K76-AE63)^2+(K77-AE63)^2+(K78-AE63)^2+(K79-AE63)^2+(K80-AE63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>49.838134585076524</v>
       </c>
       <c r="AF64">
-        <f>((L75-AF63)^2+(L76-AF63)^2+(L77-AF63)^2+(L78-AF63)^2+(L79-AF63)^2+(L80-AF63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>15093.659811656318</v>
       </c>
       <c r="AG64">
-        <f>((M75-AG63)^2+(M76-AG63)^2+(M77-AG63)^2+(M78-AG63)^2+(M79-AG63)^2+(M80-AG63)^2)/6</f>
+        <f t="shared" si="76"/>
         <v>1019.4826740336957</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="5">
         <v>1.42</v>
       </c>
@@ -6622,56 +6622,56 @@
         <v>55</v>
       </c>
       <c r="V65" s="32">
-        <f t="shared" ref="V65:AG65" si="75">1-V66-V67-V68</f>
+        <f t="shared" ref="V65:AG65" si="77">1-V66-V67-V68</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="W65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="X65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="Y65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.5</v>
       </c>
       <c r="Z65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="AA65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AB65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="AC65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.33333333333333343</v>
       </c>
       <c r="AD65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AE65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AF65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="AG65" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="5">
         <v>0.30599999999999999</v>
       </c>
@@ -6712,56 +6712,56 @@
         <v>56</v>
       </c>
       <c r="V66" s="33">
-        <f>(COUNTIF(B$15:B$20,"&gt;5")+COUNTIF(B$15:B$20,"&lt;-5"))/6-V67-V68</f>
+        <f t="shared" ref="V66:AG66" si="78">(COUNTIF(B$15:B$20,"&gt;5")+COUNTIF(B$15:B$20,"&lt;-5"))/6-V67-V68</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="W66" s="33">
-        <f>(COUNTIF(C$15:C$20,"&gt;5")+COUNTIF(C$15:C$20,"&lt;-5"))/6-W67-W68</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="X66" s="33">
-        <f>(COUNTIF(D$15:D$20,"&gt;5")+COUNTIF(D$15:D$20,"&lt;-5"))/6-X67-X68</f>
+        <f t="shared" si="78"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="Y66" s="33">
-        <f>(COUNTIF(E$15:E$20,"&gt;5")+COUNTIF(E$15:E$20,"&lt;-5"))/6-Y67-Y68</f>
+        <f t="shared" si="78"/>
         <v>0.16666666666666671</v>
       </c>
       <c r="Z66" s="33">
-        <f>(COUNTIF(F$15:F$20,"&gt;5")+COUNTIF(F$15:F$20,"&lt;-5"))/6-Z67-Z68</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AA66" s="33">
-        <f>(COUNTIF(G$15:G$20,"&gt;5")+COUNTIF(G$15:G$20,"&lt;-5"))/6-AA67-AA68</f>
+        <f t="shared" si="78"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AB66" s="33">
-        <f>(COUNTIF(H$15:H$20,"&gt;5")+COUNTIF(H$15:H$20,"&lt;-5"))/6-AB67-AB68</f>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AC66" s="33">
-        <f>(COUNTIF(I$15:I$20,"&gt;5")+COUNTIF(I$15:I$20,"&lt;-5"))/6-AC67-AC68</f>
+        <f t="shared" si="78"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AD66" s="33">
-        <f>(COUNTIF(J$15:J$20,"&gt;5")+COUNTIF(J$15:J$20,"&lt;-5"))/6-AD67-AD68</f>
+        <f t="shared" si="78"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE66" s="33">
-        <f>(COUNTIF(K$15:K$20,"&gt;5")+COUNTIF(K$15:K$20,"&lt;-5"))/6-AE67-AE68</f>
+        <f t="shared" si="78"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AF66" s="33">
-        <f>(COUNTIF(L$15:L$20,"&gt;5")+COUNTIF(L$15:L$20,"&lt;-5"))/6-AF67-AF68</f>
+        <f t="shared" si="78"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="AG66" s="33">
-        <f>(COUNTIF(M$15:M$20,"&gt;5")+COUNTIF(M$15:M$20,"&lt;-5"))/6-AG67-AG68</f>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -6802,56 +6802,56 @@
         <v>57</v>
       </c>
       <c r="V67" s="34">
-        <f>(COUNTIF(B$15:B$20,"&gt;10")+COUNTIF(B$15:B$20,"&lt;-10"))/6-V68</f>
+        <f t="shared" ref="V67:AG67" si="79">(COUNTIF(B$15:B$20,"&gt;10")+COUNTIF(B$15:B$20,"&lt;-10"))/6-V68</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="W67" s="34">
-        <f>(COUNTIF(C$15:C$20,"&gt;10")+COUNTIF(C$15:C$20,"&lt;-10"))/6-W68</f>
+        <f t="shared" si="79"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="X67" s="34">
-        <f>(COUNTIF(D$15:D$20,"&gt;10")+COUNTIF(D$15:D$20,"&lt;-10"))/6-X68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="Y67" s="34">
-        <f>(COUNTIF(E$15:E$20,"&gt;10")+COUNTIF(E$15:E$20,"&lt;-10"))/6-Y68</f>
+        <f t="shared" si="79"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="Z67" s="34">
-        <f>(COUNTIF(F$15:F$20,"&gt;10")+COUNTIF(F$15:F$20,"&lt;-10"))/6-Z68</f>
+        <f t="shared" si="79"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="AA67" s="34">
-        <f>(COUNTIF(G$15:G$20,"&gt;10")+COUNTIF(G$15:G$20,"&lt;-10"))/6-AA68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AB67" s="34">
-        <f>(COUNTIF(H$15:H$20,"&gt;10")+COUNTIF(H$15:H$20,"&lt;-10"))/6-AB68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AC67" s="34">
-        <f>(COUNTIF(I$15:I$20,"&gt;10")+COUNTIF(I$15:I$20,"&lt;-10"))/6-AC68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AD67" s="34">
-        <f>(COUNTIF(J$15:J$20,"&gt;10")+COUNTIF(J$15:J$20,"&lt;-10"))/6-AD68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AE67" s="34">
-        <f>(COUNTIF(K$15:K$20,"&gt;10")+COUNTIF(K$15:K$20,"&lt;-10"))/6-AE68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AF67" s="34">
-        <f>(COUNTIF(L$15:L$20,"&gt;10")+COUNTIF(L$15:L$20,"&lt;-10"))/6-AF68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AG67" s="34">
-        <f>(COUNTIF(M$15:M$20,"&gt;10")+COUNTIF(M$15:M$20,"&lt;-10"))/6-AG68</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="17">
         <v>4.0990000000000002</v>
       </c>
@@ -6892,56 +6892,56 @@
         <v>58</v>
       </c>
       <c r="V68" s="35">
-        <f t="shared" ref="V68:AG80" si="76">(COUNTIF(B$15:B$20,"&gt;15")+COUNTIF(B$15:B$20,"&lt;-15"))/6</f>
+        <f t="shared" ref="V68:AG68" si="80">(COUNTIF(B$15:B$20,"&gt;15")+COUNTIF(B$15:B$20,"&lt;-15"))/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="W68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.5</v>
       </c>
       <c r="X68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Y68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="Z68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AB68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AC68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AD68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AE68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AF68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AG68" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="20">
@@ -6984,56 +6984,56 @@
         <v>29</v>
       </c>
       <c r="V69">
-        <f>AVERAGE(B81:B86)</f>
+        <f t="shared" ref="V69:AG69" si="81">AVERAGE(B81:B86)</f>
         <v>116.62236041916668</v>
       </c>
       <c r="W69">
-        <f>AVERAGE(C81:C86)</f>
+        <f t="shared" si="81"/>
         <v>326.20909710444442</v>
       </c>
       <c r="X69">
-        <f>AVERAGE(D81:D86)</f>
+        <f t="shared" si="81"/>
         <v>268.11454647916662</v>
       </c>
       <c r="Y69">
-        <f>AVERAGE(E81:E86)</f>
+        <f t="shared" si="81"/>
         <v>87.927593015555544</v>
       </c>
       <c r="Z69">
-        <f>AVERAGE(F81:F86)</f>
+        <f t="shared" si="81"/>
         <v>108.11180674632224</v>
       </c>
       <c r="AA69">
-        <f>AVERAGE(G81:G86)</f>
+        <f t="shared" si="81"/>
         <v>7.5188993792666663</v>
       </c>
       <c r="AB69">
-        <f>AVERAGE(H81:H86)</f>
+        <f t="shared" si="81"/>
         <v>51.114680276191677</v>
       </c>
       <c r="AC69">
-        <f>AVERAGE(I81:I86)</f>
+        <f t="shared" si="81"/>
         <v>53.715488534636116</v>
       </c>
       <c r="AD69">
-        <f>AVERAGE(J81:J86)</f>
+        <f t="shared" si="81"/>
         <v>20.105498130691672</v>
       </c>
       <c r="AE69">
-        <f>AVERAGE(K81:K86)</f>
+        <f t="shared" si="81"/>
         <v>6.4506869686916692</v>
       </c>
       <c r="AF69">
-        <f>AVERAGE(L81:L86)</f>
+        <f t="shared" si="81"/>
         <v>99.231453832066691</v>
       </c>
       <c r="AG69">
-        <f>AVERAGE(M81:M86)</f>
+        <f t="shared" si="81"/>
         <v>29.201994458733335</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="5">
         <v>1.9179999999999999</v>
       </c>
@@ -7074,56 +7074,56 @@
         <v>30</v>
       </c>
       <c r="V70">
-        <f>((B81-V69)^2+(B82-V69)^2+(B83-V69)^2+(B84-V69)^2+(B85-V69)^2+(B86-V69)^2)/6</f>
+        <f t="shared" ref="V70:AG70" si="82">((B81-V69)^2+(B82-V69)^2+(B83-V69)^2+(B84-V69)^2+(B85-V69)^2+(B86-V69)^2)/6</f>
         <v>25130.281090655542</v>
       </c>
       <c r="W70">
-        <f>((C81-W69)^2+(C82-W69)^2+(C83-W69)^2+(C84-W69)^2+(C85-W69)^2+(C86-W69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>118458.12066300772</v>
       </c>
       <c r="X70">
-        <f>((D81-X69)^2+(D82-X69)^2+(D83-X69)^2+(D84-X69)^2+(D85-X69)^2+(D86-X69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>117660.6645920576</v>
       </c>
       <c r="Y70">
-        <f>((E81-Y69)^2+(E82-Y69)^2+(E83-Y69)^2+(E84-Y69)^2+(E85-Y69)^2+(E86-Y69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>9856.2230367726388</v>
       </c>
       <c r="Z70">
-        <f>((F81-Z69)^2+(F82-Z69)^2+(F83-Z69)^2+(F84-Z69)^2+(F85-Z69)^2+(F86-Z69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>17654.601403020366</v>
       </c>
       <c r="AA70">
-        <f>((G81-AA69)^2+(G82-AA69)^2+(G83-AA69)^2+(G84-AA69)^2+(G85-AA69)^2+(G86-AA69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>44.335070276701096</v>
       </c>
       <c r="AB70">
-        <f>((H81-AB69)^2+(H82-AB69)^2+(H83-AB69)^2+(H84-AB69)^2+(H85-AB69)^2+(H86-AB69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>3393.1841339219013</v>
       </c>
       <c r="AC70">
-        <f>((I81-AC69)^2+(I82-AC69)^2+(I83-AC69)^2+(I84-AC69)^2+(I85-AC69)^2+(I86-AC69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>5521.5285877828355</v>
       </c>
       <c r="AD70">
-        <f>((J81-AD69)^2+(J82-AD69)^2+(J83-AD69)^2+(J84-AD69)^2+(J85-AD69)^2+(J86-AD69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>517.25889540078242</v>
       </c>
       <c r="AE70">
-        <f>((K81-AE69)^2+(K82-AE69)^2+(K83-AE69)^2+(K84-AE69)^2+(K85-AE69)^2+(K86-AE69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>107.16034384145074</v>
       </c>
       <c r="AF70">
-        <f>((L81-AF69)^2+(L82-AF69)^2+(L83-AF69)^2+(L84-AF69)^2+(L85-AF69)^2+(L86-AF69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>9467.0843865796724</v>
       </c>
       <c r="AG70">
-        <f>((M81-AG69)^2+(M82-AG69)^2+(M83-AG69)^2+(M84-AG69)^2+(M85-AG69)^2+(M86-AG69)^2)/6</f>
+        <f t="shared" si="82"/>
         <v>701.93713268303475</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="5">
         <v>2.044</v>
       </c>
@@ -7164,56 +7164,56 @@
         <v>55</v>
       </c>
       <c r="V71" s="32">
-        <f t="shared" ref="V71:AG71" si="77">1-V72-V73-V74</f>
+        <f t="shared" ref="V71:AG71" si="83">1-V72-V73-V74</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="W71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="X71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="Y71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
       <c r="Z71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="AA71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AB71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="AC71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.33333333333333343</v>
       </c>
       <c r="AD71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AE71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AF71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="AG71" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="5">
         <v>3.226</v>
       </c>
@@ -7254,56 +7254,56 @@
         <v>56</v>
       </c>
       <c r="V72" s="33">
-        <f>(COUNTIF(B$15:B$20,"&gt;5")+COUNTIF(B$15:B$20,"&lt;-5"))/6-V73-V74</f>
+        <f t="shared" ref="V72:AG72" si="84">(COUNTIF(B$15:B$20,"&gt;5")+COUNTIF(B$15:B$20,"&lt;-5"))/6-V73-V74</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="W72" s="33">
-        <f>(COUNTIF(C$15:C$20,"&gt;5")+COUNTIF(C$15:C$20,"&lt;-5"))/6-W73-W74</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="X72" s="33">
-        <f>(COUNTIF(D$15:D$20,"&gt;5")+COUNTIF(D$15:D$20,"&lt;-5"))/6-X73-X74</f>
+        <f t="shared" si="84"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="Y72" s="33">
-        <f>(COUNTIF(E$15:E$20,"&gt;5")+COUNTIF(E$15:E$20,"&lt;-5"))/6-Y73-Y74</f>
+        <f t="shared" si="84"/>
         <v>0.16666666666666671</v>
       </c>
       <c r="Z72" s="33">
-        <f>(COUNTIF(F$15:F$20,"&gt;5")+COUNTIF(F$15:F$20,"&lt;-5"))/6-Z73-Z74</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AA72" s="33">
-        <f>(COUNTIF(G$15:G$20,"&gt;5")+COUNTIF(G$15:G$20,"&lt;-5"))/6-AA73-AA74</f>
+        <f t="shared" si="84"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AB72" s="33">
-        <f>(COUNTIF(H$15:H$20,"&gt;5")+COUNTIF(H$15:H$20,"&lt;-5"))/6-AB73-AB74</f>
+        <f t="shared" si="84"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AC72" s="33">
-        <f>(COUNTIF(I$15:I$20,"&gt;5")+COUNTIF(I$15:I$20,"&lt;-5"))/6-AC73-AC74</f>
+        <f t="shared" si="84"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AD72" s="33">
-        <f>(COUNTIF(J$15:J$20,"&gt;5")+COUNTIF(J$15:J$20,"&lt;-5"))/6-AD73-AD74</f>
+        <f t="shared" si="84"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE72" s="33">
-        <f>(COUNTIF(K$15:K$20,"&gt;5")+COUNTIF(K$15:K$20,"&lt;-5"))/6-AE73-AE74</f>
+        <f t="shared" si="84"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AF72" s="33">
-        <f>(COUNTIF(L$15:L$20,"&gt;5")+COUNTIF(L$15:L$20,"&lt;-5"))/6-AF73-AF74</f>
+        <f t="shared" si="84"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="AG72" s="33">
-        <f>(COUNTIF(M$15:M$20,"&gt;5")+COUNTIF(M$15:M$20,"&lt;-5"))/6-AG73-AG74</f>
+        <f t="shared" si="84"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="5">
         <v>5.407</v>
       </c>
@@ -7344,56 +7344,56 @@
         <v>57</v>
       </c>
       <c r="V73" s="34">
-        <f>(COUNTIF(B$15:B$20,"&gt;10")+COUNTIF(B$15:B$20,"&lt;-10"))/6-V74</f>
+        <f t="shared" ref="V73:AG73" si="85">(COUNTIF(B$15:B$20,"&gt;10")+COUNTIF(B$15:B$20,"&lt;-10"))/6-V74</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="W73" s="34">
-        <f>(COUNTIF(C$15:C$20,"&gt;10")+COUNTIF(C$15:C$20,"&lt;-10"))/6-W74</f>
+        <f t="shared" si="85"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="X73" s="34">
-        <f>(COUNTIF(D$15:D$20,"&gt;10")+COUNTIF(D$15:D$20,"&lt;-10"))/6-X74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Y73" s="34">
-        <f>(COUNTIF(E$15:E$20,"&gt;10")+COUNTIF(E$15:E$20,"&lt;-10"))/6-Y74</f>
+        <f t="shared" si="85"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="Z73" s="34">
-        <f>(COUNTIF(F$15:F$20,"&gt;10")+COUNTIF(F$15:F$20,"&lt;-10"))/6-Z74</f>
+        <f t="shared" si="85"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="AA73" s="34">
-        <f>(COUNTIF(G$15:G$20,"&gt;10")+COUNTIF(G$15:G$20,"&lt;-10"))/6-AA74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AB73" s="34">
-        <f>(COUNTIF(H$15:H$20,"&gt;10")+COUNTIF(H$15:H$20,"&lt;-10"))/6-AB74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AC73" s="34">
-        <f>(COUNTIF(I$15:I$20,"&gt;10")+COUNTIF(I$15:I$20,"&lt;-10"))/6-AC74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AD73" s="34">
-        <f>(COUNTIF(J$15:J$20,"&gt;10")+COUNTIF(J$15:J$20,"&lt;-10"))/6-AD74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AE73" s="34">
-        <f>(COUNTIF(K$15:K$20,"&gt;10")+COUNTIF(K$15:K$20,"&lt;-10"))/6-AE74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AF73" s="34">
-        <f>(COUNTIF(L$15:L$20,"&gt;10")+COUNTIF(L$15:L$20,"&lt;-10"))/6-AF74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AG73" s="34">
-        <f>(COUNTIF(M$15:M$20,"&gt;10")+COUNTIF(M$15:M$20,"&lt;-10"))/6-AG74</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="56"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="18">
         <v>3.077</v>
       </c>
@@ -7434,51 +7434,51 @@
         <v>58</v>
       </c>
       <c r="V74" s="35">
-        <f t="shared" ref="V74:AG86" si="78">(COUNTIF(B$15:B$20,"&gt;15")+COUNTIF(B$15:B$20,"&lt;-15"))/6</f>
+        <f t="shared" ref="V74:AG74" si="86">(COUNTIF(B$15:B$20,"&gt;15")+COUNTIF(B$15:B$20,"&lt;-15"))/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="W74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.5</v>
       </c>
       <c r="X74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Y74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="Z74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AB74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AC74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AD74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AE74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AF74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AG74" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -7488,2997 +7488,2997 @@
         <v>93.926141402500022</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:M77" si="79">(C15-C$9)^2</f>
+        <f t="shared" ref="C77:M77" si="87">(C15-C$9)^2</f>
         <v>334.78996747111131</v>
       </c>
       <c r="D77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>16.368093062499998</v>
       </c>
       <c r="E77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>11.856085337777781</v>
       </c>
       <c r="F77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>119.85556559387781</v>
       </c>
       <c r="G77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>5.4856197795999986</v>
       </c>
       <c r="H77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>30.848637764024996</v>
       </c>
       <c r="I77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>37.904195567469436</v>
       </c>
       <c r="J77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>9.257181495469446</v>
       </c>
       <c r="K77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>6.7768498201361149</v>
       </c>
       <c r="L77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>71.169807888399916</v>
       </c>
       <c r="M77">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>41.18790012840001</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B78">
-        <f t="shared" ref="B78:M93" si="80">(B16-B$9)^2</f>
+        <f t="shared" ref="B78:M93" si="88">(B16-B$9)^2</f>
         <v>25.025506502499994</v>
       </c>
       <c r="C78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.91253440444445133</v>
       </c>
       <c r="D78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>10.283245562499999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>104.84258187111109</v>
       </c>
       <c r="F78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.0220064232111079</v>
       </c>
       <c r="G78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.2193605955999995</v>
       </c>
       <c r="H78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.3410173440250013</v>
       </c>
       <c r="I78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>78.506008864136135</v>
       </c>
       <c r="J78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.5917395954694449</v>
       </c>
       <c r="K78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>19.037848753469444</v>
       </c>
       <c r="L78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.0641802304000141</v>
       </c>
       <c r="M78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>56.753923590400007</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>48.17123430249999</v>
       </c>
       <c r="C79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>64.621233604444384</v>
       </c>
       <c r="D79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>41.496143062500011</v>
       </c>
       <c r="E79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>13.379013137777777</v>
       </c>
       <c r="F79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>295.52853268987764</v>
       </c>
       <c r="G79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.891439955600001</v>
       </c>
       <c r="H79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>40.155604554025004</v>
       </c>
       <c r="I79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>14.157447227469438</v>
       </c>
       <c r="J79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.1842201654694438</v>
       </c>
       <c r="K79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.2131772868027797</v>
       </c>
       <c r="L79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>159.73117671040012</v>
       </c>
       <c r="M79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>68.185975950399992</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.4509468024999999</v>
       </c>
       <c r="C80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>507.76913793777766</v>
       </c>
       <c r="D80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>16.347870562499995</v>
       </c>
       <c r="E80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>23.364977937777773</v>
       </c>
       <c r="F80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>564.51589940854444</v>
       </c>
       <c r="G80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.11542326759999995</v>
       </c>
       <c r="H80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.4049042740250011</v>
       </c>
       <c r="I80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.3542657241361131</v>
       </c>
       <c r="J80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>14.269972145469445</v>
       </c>
       <c r="K80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.3534338334694458</v>
       </c>
       <c r="L80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>311.77247412640014</v>
       </c>
       <c r="M80">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.8421263999999964E-3</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>118.51479360249999</v>
       </c>
       <c r="C81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>930.96587100444435</v>
       </c>
       <c r="D81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>485.6403875625</v>
       </c>
       <c r="E81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>56.336032871111115</v>
       </c>
       <c r="F81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>400.97432593121113</v>
       </c>
       <c r="G81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.15924888360000033</v>
       </c>
       <c r="H81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.2733994025000119E-2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>214.45732862413612</v>
       </c>
       <c r="J81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>32.701947535469451</v>
       </c>
       <c r="K81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>29.509213310136118</v>
       </c>
       <c r="L81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>201.44068128040016</v>
       </c>
       <c r="M81">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>77.669321520400004</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>462.14035650250003</v>
       </c>
       <c r="C82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>655.49995413777754</v>
       </c>
       <c r="D82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>944.28680556249981</v>
       </c>
       <c r="E82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>283.47558933777782</v>
       </c>
       <c r="F82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>71.597715581877779</v>
       </c>
       <c r="G82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>18.977001187599999</v>
       </c>
       <c r="H82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>164.25382898402501</v>
       </c>
       <c r="I82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.1585544374694454</v>
       </c>
       <c r="J82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>64.859855518802789</v>
       </c>
       <c r="K82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.3882455701361121</v>
       </c>
       <c r="L82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>174.87629184640011</v>
       </c>
       <c r="M82">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>19.874477286399998</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>23.878370902499999</v>
       </c>
       <c r="C83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>53.644882204444492</v>
       </c>
       <c r="D83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>34.254682562500001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.0532426711111125</v>
       </c>
       <c r="F83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.6666760538777861</v>
       </c>
       <c r="G83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.27338257960000056</v>
       </c>
       <c r="H83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.29090381602499954</v>
       </c>
       <c r="I83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>19.174225149469436</v>
       </c>
       <c r="J83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.49739401846944459</v>
       </c>
       <c r="K83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.7937841031361095</v>
       </c>
       <c r="L83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.3293957183999829</v>
       </c>
       <c r="M83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>10.434708878399997</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>35.076598502499991</v>
       </c>
       <c r="C84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>110.36062773777788</v>
       </c>
       <c r="D84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>65.719395562499997</v>
       </c>
       <c r="E84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>145.06435953777773</v>
       </c>
       <c r="F84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>45.432407993877803</v>
       </c>
       <c r="G84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.6554103695999993</v>
       </c>
       <c r="H84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>8.1159748110249978</v>
       </c>
       <c r="I84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.1851842244694468</v>
       </c>
       <c r="J84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>14.937748320469444</v>
       </c>
       <c r="K84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.8248813451361139</v>
       </c>
       <c r="L84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>7.0331039999979323E-4</v>
       </c>
       <c r="M84">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.4508528703999999</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>54.1335420025</v>
       </c>
       <c r="C85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>12.814490737777753</v>
       </c>
       <c r="D85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>63.43724256250001</v>
       </c>
       <c r="E85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>28.968794471111117</v>
       </c>
       <c r="F85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>61.508622992544439</v>
       </c>
       <c r="G85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.5761778115999991</v>
       </c>
       <c r="H85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>64.756542651025001</v>
       </c>
       <c r="I85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>29.862527131136126</v>
       </c>
       <c r="J85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.1206496371361112</v>
       </c>
       <c r="K85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.0241843651361133</v>
       </c>
       <c r="L85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.3323772304000152</v>
       </c>
       <c r="M85">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>50.929917710399998</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.9905010025000003</v>
       </c>
       <c r="C86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>193.96875680444452</v>
       </c>
       <c r="D86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>15.348765062499998</v>
       </c>
       <c r="E86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.667539204444445</v>
       </c>
       <c r="F86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>65.491091924544477</v>
       </c>
       <c r="G86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>11.472175443599999</v>
       </c>
       <c r="H86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>69.258097401025012</v>
       </c>
       <c r="I86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>56.455111641136128</v>
       </c>
       <c r="J86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.5153937538027771</v>
       </c>
       <c r="K86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.16381311846944488</v>
       </c>
       <c r="L86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>211.40927360639986</v>
       </c>
       <c r="M86">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>13.8526884864</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>18.606713602499994</v>
       </c>
       <c r="C87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>69.201324271111062</v>
       </c>
       <c r="D87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>280.70489306249999</v>
       </c>
       <c r="E87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.2627766044444442</v>
       </c>
       <c r="F87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>271.79292200721102</v>
       </c>
       <c r="G87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>14.852236899600001</v>
       </c>
       <c r="H87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>12.389379221024996</v>
       </c>
       <c r="I87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>146.66812600446946</v>
       </c>
       <c r="J87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>337.05514528046956</v>
       </c>
       <c r="K87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>7.3372633584694462</v>
       </c>
       <c r="L87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.712543120400015</v>
       </c>
       <c r="M87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>30.780525920400002</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>300.58717250250004</v>
       </c>
       <c r="C88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>235.52222400444433</v>
       </c>
       <c r="D88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>198.92986806250002</v>
       </c>
       <c r="E88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>63.947744004444445</v>
       </c>
       <c r="F88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.3007848245444347</v>
       </c>
       <c r="G88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>18.430364163599997</v>
       </c>
       <c r="H88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>17.306806421025001</v>
       </c>
       <c r="I88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>105.42487610113612</v>
       </c>
       <c r="J88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.1935599271361115</v>
       </c>
       <c r="K88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.91061532846944337</v>
       </c>
       <c r="L88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.17730836640000366</v>
       </c>
       <c r="M88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>48.009932366399994</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.67166220249999986</v>
       </c>
       <c r="C89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>26.73165740444448</v>
       </c>
       <c r="D89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.8245255625000003</v>
       </c>
       <c r="E89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.3117957377777767</v>
       </c>
       <c r="F89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>41.638068599211131</v>
       </c>
       <c r="G89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.4185721615999984</v>
       </c>
       <c r="H89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>48.040909634024992</v>
       </c>
       <c r="I89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>112.07691120080277</v>
       </c>
       <c r="J89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.1604933191361111</v>
       </c>
       <c r="K89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.0042477938027741</v>
       </c>
       <c r="L89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.98291361639999242</v>
       </c>
       <c r="M89">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>42.036809616399999</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.1184496024999993</v>
       </c>
       <c r="C90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>183.98933020444454</v>
       </c>
       <c r="D90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>8.2987205624999998</v>
       </c>
       <c r="E90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>36.140937671111104</v>
       </c>
       <c r="F90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>22.144145805877795</v>
       </c>
       <c r="G90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>40.767714201600008</v>
       </c>
       <c r="H90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1.6903770210250026</v>
       </c>
       <c r="I90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>57.643601367802759</v>
       </c>
       <c r="J90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.5137264694444296E-3</v>
       </c>
       <c r="K90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.5890347802777401E-2</v>
       </c>
       <c r="L90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>34.908245222399955</v>
       </c>
       <c r="M90">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>186.80547658239996</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.8732770024999992</v>
       </c>
       <c r="C91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>126.70353927111115</v>
       </c>
       <c r="D91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>14.4001275625</v>
       </c>
       <c r="E91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>67.580456537777778</v>
       </c>
       <c r="F91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.415362893877786</v>
       </c>
       <c r="G91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>42.456431539600011</v>
       </c>
       <c r="H91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>29.86234497602501</v>
       </c>
       <c r="I91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>42.913482869469426</v>
       </c>
       <c r="J91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.3864925751361099</v>
       </c>
       <c r="K91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.1801654498027796</v>
       </c>
       <c r="L91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>24.341593038399957</v>
       </c>
       <c r="M91">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>211.50699315839998</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>18.840374302499995</v>
       </c>
       <c r="C92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>49.087772604444496</v>
       </c>
       <c r="D92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.9506650625000002</v>
       </c>
       <c r="E92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>26.468281071111107</v>
       </c>
       <c r="F92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.9041045005444364</v>
       </c>
       <c r="G92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>19.0956764196</v>
       </c>
       <c r="H92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>84.073220031025002</v>
       </c>
       <c r="I92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5.3206880444694455</v>
       </c>
       <c r="J92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>11.833175737136113</v>
       </c>
       <c r="K92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>36.756796098469451</v>
       </c>
       <c r="L92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>16.200786000399969</v>
       </c>
       <c r="M92">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>66.031550960399997</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.55435470249999985</v>
       </c>
       <c r="C93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>72.790473671111044</v>
       </c>
       <c r="D93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>40.969600562500005</v>
       </c>
       <c r="E93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>14.301507004444446</v>
       </c>
       <c r="F93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>295.98254783387779</v>
       </c>
       <c r="G93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>62.850964179599998</v>
       </c>
       <c r="H93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>223.86578300102505</v>
       </c>
       <c r="I93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>22.845165647802787</v>
       </c>
       <c r="J93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>81.215032523802776</v>
       </c>
       <c r="K93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>11.260979761802778</v>
       </c>
       <c r="L93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>126.65206584040013</v>
       </c>
       <c r="M93">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>42.301755840400006</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
-        <f t="shared" ref="B94:M109" si="81">(B32-B$9)^2</f>
+        <f t="shared" ref="B94:M109" si="89">(B32-B$9)^2</f>
         <v>2.4506337025000002</v>
       </c>
       <c r="C94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>222.44927040444438</v>
       </c>
       <c r="D94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>375.16784556250002</v>
       </c>
       <c r="E94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.22537173777777769</v>
       </c>
       <c r="F94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>249.71405482454438</v>
       </c>
       <c r="G94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>6.0175033635999986</v>
       </c>
       <c r="H94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>25.602132621024989</v>
       </c>
       <c r="I94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>191.39786343113613</v>
       </c>
       <c r="J94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>306.32216258380288</v>
       </c>
       <c r="K94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>9.1046021802778113E-2</v>
       </c>
       <c r="L94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>11.290137606400023</v>
       </c>
       <c r="M94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>122.76462720640004</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2.4446886024999999</v>
       </c>
       <c r="C95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>311.68960907111097</v>
       </c>
       <c r="D95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>8.5453905624999962</v>
       </c>
       <c r="E95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>429.32945073777779</v>
       </c>
       <c r="F95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>105.3939727045445</v>
       </c>
       <c r="G95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>869.33220211359992</v>
       </c>
       <c r="H95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>620.13724552802501</v>
       </c>
       <c r="I95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.5851775248027764</v>
       </c>
       <c r="J95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>16.580871814802776</v>
       </c>
       <c r="K95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.17209084280277823</v>
       </c>
       <c r="L95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>111.60823767040007</v>
       </c>
       <c r="M95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>773.42502267040004</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>10.761352202500001</v>
       </c>
       <c r="C96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>88.073219737777706</v>
       </c>
       <c r="D96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.28010556250000002</v>
       </c>
       <c r="E96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>122.3958693377778</v>
       </c>
       <c r="F96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>183.61216579387784</v>
       </c>
       <c r="G96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>386.3048735296</v>
       </c>
       <c r="H96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>239.41543103302502</v>
       </c>
       <c r="I96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>15.058577756469438</v>
       </c>
       <c r="J96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.0605276921361115</v>
       </c>
       <c r="K96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>25.007617246802766</v>
       </c>
       <c r="L96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.10681131239999746</v>
       </c>
       <c r="M96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>431.59314603240006</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.8081571024999996</v>
       </c>
       <c r="C97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.3395781377777739</v>
       </c>
       <c r="D97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.6893500625</v>
       </c>
       <c r="E97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>35.322418671111116</v>
       </c>
       <c r="F97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>96.072473411211135</v>
       </c>
       <c r="G97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>71.114477043599976</v>
       </c>
       <c r="H97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>221.734584470025</v>
       </c>
       <c r="I97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>105.00589346013608</v>
       </c>
       <c r="J97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.5337552451361116</v>
       </c>
       <c r="K97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>28.949367746469431</v>
       </c>
       <c r="L97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>8.7608896144000212</v>
       </c>
       <c r="M97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>12.717211854399999</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2.9328275024999999</v>
       </c>
       <c r="C98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>106.54918913777787</v>
       </c>
       <c r="D98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>11.3417400625</v>
       </c>
       <c r="E98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>61.04713600444444</v>
       </c>
       <c r="F98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>7.1789521472111231</v>
       </c>
       <c r="G98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>35.169169729599993</v>
       </c>
       <c r="H98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>147.293539967025</v>
       </c>
       <c r="I98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>59.150532447136101</v>
       </c>
       <c r="J98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>6.1805802777778913E-5</v>
       </c>
       <c r="K98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2.7657741071361097</v>
       </c>
       <c r="L98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>89.288892518400061</v>
       </c>
       <c r="M98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>143.00046055839996</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>28.500116102499998</v>
       </c>
       <c r="C99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>213.92767660444454</v>
       </c>
       <c r="D99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.808152562500001</v>
       </c>
       <c r="E99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2.2179152044444455</v>
       </c>
       <c r="F99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>14.529488885877791</v>
       </c>
       <c r="G99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>29.986137921599997</v>
       </c>
       <c r="H99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.2186333430249983</v>
       </c>
       <c r="I99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>6.23769772646944</v>
       </c>
       <c r="J99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>12.024677434469442</v>
       </c>
       <c r="K99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.10359493246944404</v>
       </c>
       <c r="L99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>30.08873550239996</v>
       </c>
       <c r="M99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>58.548206822399997</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>18.727689002499996</v>
       </c>
       <c r="C100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>77.013495537777715</v>
       </c>
       <c r="D100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>290.48941406249997</v>
       </c>
       <c r="E100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.0613000711111109</v>
       </c>
       <c r="F100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>118.51900306721105</v>
       </c>
       <c r="G100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.9134928895999996</v>
       </c>
       <c r="H100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>346.2816687360251</v>
       </c>
       <c r="I100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.46900354280277673</v>
       </c>
       <c r="J100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>152.46664194846946</v>
       </c>
       <c r="K100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.1357639998027774</v>
       </c>
       <c r="L100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>21.397840608400038</v>
       </c>
       <c r="M100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.6108360483999991</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.4037967025000001</v>
       </c>
       <c r="C101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>34.319288337777813</v>
       </c>
       <c r="D101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.6489405625000018</v>
       </c>
       <c r="E101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>19.055553071111113</v>
       </c>
       <c r="F101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>43.057962913877802</v>
       </c>
       <c r="G101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.6430595999999514E-3</v>
       </c>
       <c r="H101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.1345752540250004</v>
       </c>
       <c r="I101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.5477285808027794</v>
       </c>
       <c r="J101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.0661835954694443</v>
       </c>
       <c r="K101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>16.360096940136106</v>
       </c>
       <c r="L101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>63.382616142399925</v>
       </c>
       <c r="M101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>41.839163622399994</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.131259502499999</v>
       </c>
       <c r="C102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>49.354371737777818</v>
       </c>
       <c r="D102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>7.7047880624999996</v>
       </c>
       <c r="E102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.842172804444445</v>
       </c>
       <c r="F102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>10.377138773877791</v>
       </c>
       <c r="G102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.1377162496000017</v>
       </c>
       <c r="H102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>10.902180404025003</v>
       </c>
       <c r="I102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.5470511674694474</v>
       </c>
       <c r="J102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.2668359554694445</v>
       </c>
       <c r="K102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.5869994568027761</v>
       </c>
       <c r="L102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>49.55906563239995</v>
       </c>
       <c r="M102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.8818901123999996</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>68.965550702500011</v>
       </c>
       <c r="C103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>202.47202987111118</v>
       </c>
       <c r="D103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>16.554726562500004</v>
       </c>
       <c r="E103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>11.361843204444444</v>
       </c>
       <c r="F103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>208.08225983654449</v>
       </c>
       <c r="G103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>72.25578011559999</v>
       </c>
       <c r="H103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.156737014025004</v>
       </c>
       <c r="I103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>26.714822220802766</v>
       </c>
       <c r="J103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.11051524546944441</v>
       </c>
       <c r="K103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>20.868801470136113</v>
       </c>
       <c r="L103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>267.7647867903998</v>
       </c>
       <c r="M103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.5288827904</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>8.8235732025000004</v>
       </c>
       <c r="C104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>41.040252604444483</v>
       </c>
       <c r="D104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>16.766977562500003</v>
       </c>
       <c r="E104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>45.05452380444445</v>
       </c>
       <c r="F104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.3406320605444504</v>
       </c>
       <c r="G104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>67.549659699599985</v>
       </c>
       <c r="H104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.5905119340249985</v>
       </c>
       <c r="I104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.8397169708027796</v>
       </c>
       <c r="J104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>43.118112385469445</v>
       </c>
       <c r="K104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.24876320013611056</v>
       </c>
       <c r="L104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>44.484631302400068</v>
       </c>
       <c r="M104">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>40.496423142400005</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>15.670118102499998</v>
       </c>
       <c r="C105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>64.81430720444439</v>
       </c>
       <c r="D105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>66.86741756249998</v>
       </c>
       <c r="E105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.62367873777777749</v>
       </c>
       <c r="F105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>395.85651954054447</v>
       </c>
       <c r="G105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>62.202560659599996</v>
       </c>
       <c r="H105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>10.548497144025003</v>
       </c>
       <c r="I105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>113.11091778080277</v>
       </c>
       <c r="J105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>138.24025634546942</v>
       </c>
       <c r="K105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.14306423680277822</v>
       </c>
       <c r="L105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>23.919729008400047</v>
       </c>
       <c r="M105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.6179428483999994</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>156.5363811025</v>
       </c>
       <c r="C106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>37.549115804444405</v>
       </c>
       <c r="D106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>232.75316406250005</v>
       </c>
       <c r="E106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>171.89132853777775</v>
       </c>
       <c r="F106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>14.557709575211128</v>
       </c>
       <c r="G106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>6.5959594276000022</v>
       </c>
       <c r="H106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>58.826522324025007</v>
       </c>
       <c r="I106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>96.341324647469435</v>
       </c>
       <c r="J106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.0343199688027775</v>
       </c>
       <c r="K106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.54204688346944541</v>
       </c>
       <c r="L106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>182.08587696639989</v>
       </c>
       <c r="M106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>42.392079246399994</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.9419816024999996</v>
       </c>
       <c r="C107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>15.332967537777753</v>
       </c>
       <c r="D107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.45866756250000018</v>
       </c>
       <c r="E107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.151571737777779</v>
       </c>
       <c r="F107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>78.59963171387777</v>
       </c>
       <c r="G107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>12.647696449600005</v>
       </c>
       <c r="H107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>24.984552387024998</v>
       </c>
       <c r="I107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>6.4818019971361069</v>
       </c>
       <c r="J107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>10.895687742469445</v>
       </c>
       <c r="K107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.5130517038027766</v>
       </c>
       <c r="L107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>111.58288435840005</v>
       </c>
       <c r="M107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>23.7391123984</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2.2365202499999973E-2</v>
       </c>
       <c r="C108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>16.348005337777799</v>
       </c>
       <c r="D108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.77220156250000027</v>
       </c>
       <c r="E108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>16.627909137777774</v>
       </c>
       <c r="F108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.5298657877778622E-2</v>
       </c>
       <c r="G108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>13.385061273600003</v>
       </c>
       <c r="H108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>5.1390396330250008</v>
       </c>
       <c r="I108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>7.2336164464694415</v>
       </c>
       <c r="J108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.40152710780277795</v>
       </c>
       <c r="K108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.8573919224694431</v>
       </c>
       <c r="L108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>9.8327399183999731</v>
       </c>
       <c r="M108">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>24.853016678400003</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2.5810029024999999</v>
       </c>
       <c r="C109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>104.06584160444449</v>
       </c>
       <c r="D109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>12.143482562500001</v>
       </c>
       <c r="E109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>1.3718656044444451</v>
       </c>
       <c r="F109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>14.638709616544455</v>
       </c>
       <c r="G109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>22.740118195599997</v>
       </c>
       <c r="H109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.4043108360250036</v>
       </c>
       <c r="I109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>4.6155509469444217E-2</v>
       </c>
       <c r="J109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.9208469444445469E-5</v>
       </c>
       <c r="K109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>3.5511957731361097</v>
       </c>
       <c r="L109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>35.176998240399946</v>
       </c>
       <c r="M109">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>9.6036770404000009</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110">
-        <f t="shared" ref="B110:M125" si="82">(B48-B$9)^2</f>
+        <f t="shared" ref="B110:M125" si="90">(B48-B$9)^2</f>
         <v>15.773209402500001</v>
       </c>
       <c r="C110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>99.685580871111185</v>
       </c>
       <c r="D110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.2246530625000007</v>
       </c>
       <c r="E110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>8.8193160711111105</v>
       </c>
       <c r="F110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.5955310805444409</v>
       </c>
       <c r="G110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>52.938138739600006</v>
       </c>
       <c r="H110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>20.886225321025002</v>
       </c>
       <c r="I110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.46968863113610965</v>
       </c>
       <c r="J110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.2782940469444459E-2</v>
       </c>
       <c r="K110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.4735058651361133</v>
       </c>
       <c r="L110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>11.697220814399971</v>
       </c>
       <c r="M110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>90.894867854400005</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.82165160249999991</v>
       </c>
       <c r="C111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>14.518132071111134</v>
       </c>
       <c r="D111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.6042430625000001</v>
       </c>
       <c r="E111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>105.67291740444443</v>
       </c>
       <c r="F111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>45.791522076544425</v>
       </c>
       <c r="G111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>131.87444699560001</v>
       </c>
       <c r="H111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>27.985634121025008</v>
       </c>
       <c r="I111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>50.913053131136095</v>
       </c>
       <c r="J111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>8.9876342504694442</v>
       </c>
       <c r="K111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.9443284694443705E-3</v>
       </c>
       <c r="L111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>20.023656048400039</v>
       </c>
       <c r="M111">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>344.65105644839997</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.15480290250000012</v>
       </c>
       <c r="C112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>510.65755180444432</v>
       </c>
       <c r="D112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>34.436358062499998</v>
       </c>
       <c r="E112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.22727467111111102</v>
       </c>
       <c r="F112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>230.01493684587774</v>
       </c>
       <c r="G112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>49.534007041599992</v>
       </c>
       <c r="H112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.55524107102500053</v>
       </c>
       <c r="I112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>37.658616411136116</v>
       </c>
       <c r="J112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>54.362038340469446</v>
       </c>
       <c r="K112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.6033973551361087</v>
       </c>
       <c r="L112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>49.67543168640006</v>
       </c>
       <c r="M112">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>227.19291732639999</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.9953971025000001</v>
       </c>
       <c r="C113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>39.964312337777748</v>
       </c>
       <c r="D113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.5448225624999994</v>
       </c>
       <c r="E113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>178.89775840444449</v>
       </c>
       <c r="F113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>434.41216840321113</v>
       </c>
       <c r="G113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>876.92029286560012</v>
       </c>
       <c r="H113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>292.25116257602491</v>
       </c>
       <c r="I113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.5149379428027725</v>
       </c>
       <c r="J113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>18.755294511802781</v>
       </c>
       <c r="K113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>70.13289229646945</v>
       </c>
       <c r="L113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.34044891040000491</v>
       </c>
       <c r="M113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>365.32664679040005</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.5536376025</v>
       </c>
       <c r="C114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>36.321514671111082</v>
       </c>
       <c r="D114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.1103890624999999</v>
       </c>
       <c r="E114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>116.27884000444443</v>
       </c>
       <c r="F114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>102.6362829818778</v>
       </c>
       <c r="G114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>222.34507833759997</v>
       </c>
       <c r="H114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>121.22131110302499</v>
       </c>
       <c r="I114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.6397784231361088</v>
       </c>
       <c r="J114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.5736155321361112</v>
       </c>
       <c r="K114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.0936174634694431</v>
       </c>
       <c r="L114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.5521636164000165</v>
       </c>
       <c r="M114">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>215.3973040164</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.0661595024999997</v>
       </c>
       <c r="C115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.27695660444444792</v>
       </c>
       <c r="D115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>81.689963062499999</v>
       </c>
       <c r="E115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>54.711664004444451</v>
       </c>
       <c r="F115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>121.27199935387783</v>
       </c>
       <c r="G115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>132.67906744959998</v>
       </c>
       <c r="H115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>135.68417420602501</v>
       </c>
       <c r="I115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>100.13681342946943</v>
       </c>
       <c r="J115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.1999425828027768</v>
       </c>
       <c r="K115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>140.65102139746944</v>
       </c>
       <c r="L115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.8800430144000169</v>
       </c>
       <c r="M115">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>107.0786204944</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.1241605025000005</v>
       </c>
       <c r="C116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>8.3043870044444219</v>
       </c>
       <c r="D116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.56512806250000025</v>
       </c>
       <c r="E116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>35.322418671111116</v>
       </c>
       <c r="F116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>47.329492393877764</v>
       </c>
       <c r="G116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>29.760952729599996</v>
       </c>
       <c r="H116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>92.283977667024971</v>
       </c>
       <c r="I116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>19.491680487136104</v>
       </c>
       <c r="J116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.3703880591361113</v>
       </c>
       <c r="K116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>16.362523887136103</v>
       </c>
       <c r="L116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>214.63070407840016</v>
       </c>
       <c r="M116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>33.933887078400005</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.0374441024999996</v>
       </c>
       <c r="C117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>52.856777404444486</v>
       </c>
       <c r="D117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.7444105624999997</v>
       </c>
       <c r="E117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>28.678881071111114</v>
       </c>
       <c r="F117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.3974595858777725</v>
       </c>
       <c r="G117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>73.529939001600013</v>
       </c>
       <c r="H117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.87245874302499893</v>
       </c>
       <c r="I117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.0984450398027805</v>
       </c>
       <c r="J117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.64909072113611122</v>
       </c>
       <c r="K117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.7692517791361091</v>
       </c>
       <c r="L117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>6.0107348224000248</v>
       </c>
       <c r="M117">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>19.067894222399996</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.85849490249999993</v>
       </c>
       <c r="C118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>14.781974404444423</v>
       </c>
       <c r="D118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>89.714048062499998</v>
       </c>
       <c r="E118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>23.43786293777778</v>
       </c>
       <c r="F118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>44.417470760544433</v>
       </c>
       <c r="G118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.5848120896000015</v>
       </c>
       <c r="H118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.0950576025000113E-2</v>
       </c>
       <c r="I118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>20.483212619469437</v>
       </c>
       <c r="J118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>56.953259471802781</v>
       </c>
       <c r="K118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.99692569980277668</v>
       </c>
       <c r="L118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>199.00124196840011</v>
       </c>
       <c r="M118">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>29.384855808400008</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.1026502499999958E-2</v>
       </c>
       <c r="C119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>79.036841404444488</v>
       </c>
       <c r="D119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.89823006250000015</v>
       </c>
       <c r="E119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>59.501681937777768</v>
       </c>
       <c r="F119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>36.010280733877799</v>
       </c>
       <c r="G119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>7.2192166596000016</v>
       </c>
       <c r="H119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>39.336039704025012</v>
       </c>
       <c r="I119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.7103713641361056</v>
       </c>
       <c r="J119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.37768604213611123</v>
       </c>
       <c r="K119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.8489517901361094</v>
       </c>
       <c r="L119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>166.08301678239988</v>
       </c>
       <c r="M119">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>13.813710222400001</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.67494440249999987</v>
       </c>
       <c r="C120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>552.59158613777788</v>
       </c>
       <c r="D120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.2275562499999964E-2</v>
       </c>
       <c r="E120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>53.989185137777774</v>
       </c>
       <c r="F120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>258.77087080721111</v>
       </c>
       <c r="G120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>43.551552409599999</v>
       </c>
       <c r="H120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>148.93383278402499</v>
       </c>
       <c r="I120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>25.053645414136117</v>
       </c>
       <c r="J120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>21.607978938802773</v>
       </c>
       <c r="K120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>31.575839446802782</v>
       </c>
       <c r="L120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>558.93565291239975</v>
       </c>
       <c r="M120">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>52.029965712400006</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.1593563025</v>
       </c>
       <c r="C121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.3248117377777682</v>
       </c>
       <c r="D121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.3087380625000007</v>
       </c>
       <c r="E121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>13.680628271111111</v>
       </c>
       <c r="F121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.99988666987777264</v>
       </c>
       <c r="G121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.2941949156000003</v>
       </c>
       <c r="H121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>37.330205924025002</v>
       </c>
       <c r="I121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.11246744746944497</v>
       </c>
       <c r="J121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>6.8164288027777924E-3</v>
       </c>
       <c r="K121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>17.62120301013611</v>
       </c>
       <c r="L121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>26.962263950399954</v>
       </c>
       <c r="M121">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>9.111462990399998</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.59205330249999999</v>
       </c>
       <c r="C122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>31.790051004444482</v>
       </c>
       <c r="D122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.5295505625000005</v>
       </c>
       <c r="E122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>39.422492271111111</v>
       </c>
       <c r="F122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>14.532436793877764</v>
       </c>
       <c r="G122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>104.44553841960001</v>
       </c>
       <c r="H122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>61.981688394024999</v>
       </c>
       <c r="I122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.1277073608027785</v>
       </c>
       <c r="J122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.6459021361111027E-3</v>
       </c>
       <c r="K122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.8210931734694422</v>
       </c>
       <c r="L122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>16.074646862399963</v>
       </c>
       <c r="M122">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>62.531402982400003</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>6.5512962024999988</v>
       </c>
       <c r="C123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>188.49276320444457</v>
       </c>
       <c r="D123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>23.143315562500003</v>
       </c>
       <c r="E123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>5.0838224044444438</v>
       </c>
       <c r="F123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>16.792429260544463</v>
       </c>
       <c r="G123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>50.011203859600002</v>
       </c>
       <c r="H123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.2394420240250028</v>
       </c>
       <c r="I123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>27.726947057469435</v>
       </c>
       <c r="J123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>3.067536235469444</v>
       </c>
       <c r="K123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.24976172346944389</v>
       </c>
       <c r="L123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>17.191140288399968</v>
       </c>
       <c r="M123">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>140.13303532839996</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.0620387024999998</v>
       </c>
       <c r="C124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.19383473777778043</v>
       </c>
       <c r="D124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>48.285126562500004</v>
       </c>
       <c r="E124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>127.18726913777779</v>
       </c>
       <c r="F124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>8.3778793952111208</v>
       </c>
       <c r="G124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>0.19249278759999972</v>
       </c>
       <c r="H124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>272.50894654402509</v>
       </c>
       <c r="I124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.9537177208027758</v>
       </c>
       <c r="J124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>58.651677705469453</v>
       </c>
       <c r="K124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1.7050135301361096</v>
       </c>
       <c r="L124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>137.91965696639991</v>
       </c>
       <c r="M124">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>6.7184639999999702E-4</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.0490491025000002</v>
       </c>
       <c r="C125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>320.68691313777765</v>
       </c>
       <c r="D125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>4.8543105624999985</v>
       </c>
       <c r="E125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>8.563036604444445</v>
       </c>
       <c r="F125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>590.43929508854455</v>
       </c>
       <c r="G125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>1662.6201970576003</v>
       </c>
       <c r="H125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>313.26008771402491</v>
       </c>
       <c r="I125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>157.99580783080279</v>
       </c>
       <c r="J125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>10.071980270802777</v>
       </c>
       <c r="K125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>15.566483642136117</v>
       </c>
       <c r="L125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>11.737613040399971</v>
       </c>
       <c r="M125">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>588.54857040040008</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126">
-        <f t="shared" ref="B126:M136" si="83">(B64-B$9)^2</f>
+        <f t="shared" ref="B126:M136" si="91">(B64-B$9)^2</f>
         <v>1.0311387024999998</v>
       </c>
       <c r="C126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>328.14356373777764</v>
       </c>
       <c r="D126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>5.7480062500000061E-2</v>
       </c>
       <c r="E126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.38597227111111132</v>
       </c>
       <c r="F126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>19.77542359521113</v>
       </c>
       <c r="G126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>464.24045813760006</v>
       </c>
       <c r="H126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.8590834470249975</v>
       </c>
       <c r="I126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.5056937671361097</v>
       </c>
       <c r="J126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>18.610063943802782</v>
       </c>
       <c r="K126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.3558801918027807</v>
       </c>
       <c r="L126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.3543189904000164</v>
       </c>
       <c r="M126">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>285.76279643040004</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.0311387024999998</v>
       </c>
       <c r="C127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>84.479382937777856</v>
       </c>
       <c r="D127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.3219250625000001</v>
       </c>
       <c r="E127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>133.4548651377778</v>
       </c>
       <c r="F127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>162.58689591521116</v>
       </c>
       <c r="G127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>6.4731571775999992</v>
       </c>
       <c r="H127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>226.77212569202499</v>
       </c>
       <c r="I127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>21.682417952136099</v>
       </c>
       <c r="J127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.15392936780277769</v>
       </c>
       <c r="K127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.1430384891361092</v>
       </c>
       <c r="L127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>7.2915120784000251</v>
       </c>
       <c r="M127">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.11511091840000001</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.7121024999999826E-3</v>
       </c>
       <c r="C128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.30220673777777368</v>
       </c>
       <c r="D128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>17.378476562500001</v>
       </c>
       <c r="E128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>14.851260604444441</v>
       </c>
       <c r="F128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>76.694565235211101</v>
       </c>
       <c r="G128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>65.760097747599985</v>
       </c>
       <c r="H128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.777017337024998</v>
       </c>
       <c r="I128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>99.319926863802749</v>
       </c>
       <c r="J128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.89707102246944437</v>
       </c>
       <c r="K128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.753514173802774</v>
       </c>
       <c r="L128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>135.68009731240008</v>
       </c>
       <c r="M128">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>223.56768675239996</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.7063402499999923E-2</v>
       </c>
       <c r="C129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.0617054044444636</v>
       </c>
       <c r="D129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.4578400625000008</v>
       </c>
       <c r="E129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>5.1862471111111016E-2</v>
       </c>
       <c r="F129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>12.772356171211094</v>
       </c>
       <c r="G129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>39.345008953599994</v>
       </c>
       <c r="H129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.55048238302500108</v>
       </c>
       <c r="I129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.1099430198027753</v>
       </c>
       <c r="J129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.68283504113611104</v>
       </c>
       <c r="K129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.18478105246944398</v>
       </c>
       <c r="L129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>13.383012558400036</v>
       </c>
       <c r="M129">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>47.558677838400001</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>13.648960802500001</v>
       </c>
       <c r="C130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>85.75253873777784</v>
       </c>
       <c r="D130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>4.3837890625</v>
       </c>
       <c r="E130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>19.472215471111113</v>
       </c>
       <c r="F130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>22.225158780544458</v>
       </c>
       <c r="G130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>67.90353292959999</v>
       </c>
       <c r="H130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>36.682948656024998</v>
       </c>
       <c r="I130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.20235452613611013</v>
       </c>
       <c r="J130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.1145834284694442</v>
       </c>
       <c r="K130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>22.396193426469434</v>
       </c>
       <c r="L130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>94.3854996483999</v>
       </c>
       <c r="M130">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>15.664022528399997</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>4.9484002500000041E-2</v>
       </c>
       <c r="C131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>36.848137404444479</v>
       </c>
       <c r="D131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.7008140625000001</v>
       </c>
       <c r="E131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.8837898711111105</v>
       </c>
       <c r="F131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>26.523083669877799</v>
       </c>
       <c r="G131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.3056718756000005</v>
       </c>
       <c r="H131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>48.871913814025</v>
       </c>
       <c r="I131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.5874555708027778</v>
       </c>
       <c r="J131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.56465956880277757</v>
       </c>
       <c r="K131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1.9453601068027759</v>
       </c>
       <c r="L131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>129.72116583039991</v>
       </c>
       <c r="M131">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>11.212586190399998</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.2905309025</v>
       </c>
       <c r="C132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>31.857746204444485</v>
       </c>
       <c r="D132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.29675256250000009</v>
       </c>
       <c r="E132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>6.7586134044444428</v>
       </c>
       <c r="F132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.62875912987777527</v>
       </c>
       <c r="G132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>63.212994435600002</v>
       </c>
       <c r="H132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>37.599523104025003</v>
       </c>
       <c r="I132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>8.9243297274694449</v>
       </c>
       <c r="J132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.5294940921361104</v>
       </c>
       <c r="K132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.21880097680277721</v>
       </c>
       <c r="L132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>14.051402190399967</v>
       </c>
       <c r="M132">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>20.209340430399998</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.6877963025000002</v>
       </c>
       <c r="C133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>37.286492604444483</v>
       </c>
       <c r="D133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.51373056250000004</v>
       </c>
       <c r="E133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>6.0647271111111206E-2</v>
       </c>
       <c r="F133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.54249608187777543</v>
       </c>
       <c r="G133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>71.948734707599996</v>
       </c>
       <c r="H133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>18.001733694025006</v>
       </c>
       <c r="I133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>14.230712544136113</v>
       </c>
       <c r="J133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.2464510188027777</v>
       </c>
       <c r="K133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.4587134568027755</v>
       </c>
       <c r="L133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>9.0596184063999736</v>
       </c>
       <c r="M133">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>8.1229560064000008</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>7.9605801024999998</v>
       </c>
       <c r="C134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>18.751209404444477</v>
       </c>
       <c r="D134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>23.626890562500002</v>
       </c>
       <c r="E134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.29622620444444447</v>
       </c>
       <c r="F134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>10.727873951211102</v>
       </c>
       <c r="G134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>108.72358024360001</v>
       </c>
       <c r="H134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>38.054648634025014</v>
       </c>
       <c r="I134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.4312437441361121</v>
       </c>
       <c r="J134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>33.378793695469447</v>
       </c>
       <c r="K134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.6281170068027753</v>
       </c>
       <c r="L134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>8.3173406404000261</v>
       </c>
       <c r="M134">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>44.488633200399995</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>25.024506002500004</v>
       </c>
       <c r="C135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.25982807111110823</v>
       </c>
       <c r="D135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.28169556250000005</v>
       </c>
       <c r="E135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>48.000879004444442</v>
       </c>
       <c r="F135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3.3655492418777682</v>
       </c>
       <c r="G135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>40.034219107600002</v>
       </c>
       <c r="H135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.5127163740249983</v>
       </c>
       <c r="I135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>23.158824810802788</v>
       </c>
       <c r="J135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.76660823213611118</v>
       </c>
       <c r="K135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>41.072226100136113</v>
       </c>
       <c r="L135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>6.4723430464000229</v>
       </c>
       <c r="M135">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>23.950452966399997</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>7.1419890024999999</v>
       </c>
       <c r="C136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>35.733295804444403</v>
       </c>
       <c r="D136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>18.222226562499998</v>
       </c>
       <c r="E136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>6.2064096044444446</v>
       </c>
       <c r="F136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>8.3032919818777664</v>
       </c>
       <c r="G136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.17955558759999962</v>
       </c>
       <c r="H136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>57.803252094025005</v>
       </c>
       <c r="I136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>33.934838547469454</v>
       </c>
       <c r="J136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.80539556213611097</v>
       </c>
       <c r="K136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>36.527055083469442</v>
       </c>
       <c r="L136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>14.622364166399967</v>
       </c>
       <c r="M136">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>151.11588212640001</v>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3">
@@ -11240,7 +11240,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5">
         <v>3.5630000000000002</v>
       </c>
@@ -11349,7 +11349,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5">
         <v>0.30399999999999999</v>
       </c>
@@ -11458,7 +11458,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5">
         <v>-0.20599999999999999</v>
       </c>
@@ -11567,7 +11567,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="7">
         <v>6.2140000000000004</v>
       </c>
@@ -11676,7 +11676,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="15">
         <v>16.215</v>
       </c>
@@ -11785,7 +11785,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3">
@@ -11896,7 +11896,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="5">
         <v>0.755</v>
       </c>
@@ -12005,7 +12005,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5">
         <v>0.74399999999999999</v>
       </c>
@@ -12114,7 +12114,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="5">
         <v>0.441</v>
       </c>
@@ -12223,7 +12223,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="5">
         <v>8.6509999999999998</v>
       </c>
@@ -12332,7 +12332,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="15">
         <v>20.773</v>
       </c>
@@ -12441,7 +12441,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="3">
@@ -12552,7 +12552,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="5">
         <v>-1.137</v>
       </c>
@@ -12661,7 +12661,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="5">
         <v>-3.5459999999999998</v>
       </c>
@@ -12770,7 +12770,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="5">
         <v>-4.6779999999999999</v>
       </c>
@@ -12879,7 +12879,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="5">
         <v>-0.63200000000000001</v>
       </c>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="16">
         <v>11.396000000000001</v>
       </c>
@@ -13097,7 +13097,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
@@ -13208,7 +13208,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="5">
         <v>-3.5790000000000002</v>
       </c>
@@ -13317,7 +13317,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="5">
         <v>-1.419</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="5">
         <v>-1.9039999999999999</v>
       </c>
@@ -13535,7 +13535,7 @@
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="5">
         <v>-0.70299999999999996</v>
       </c>
@@ -13644,7 +13644,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="18">
         <v>1.26</v>
       </c>
@@ -13753,7 +13753,7 @@
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3">
@@ -13845,7 +13845,7 @@
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="5">
         <v>-0.58899999999999997</v>
       </c>
@@ -13935,7 +13935,7 @@
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="5">
         <v>-1.133</v>
       </c>
@@ -14025,7 +14025,7 @@
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="5">
         <v>-1.256</v>
       </c>
@@ -14115,7 +14115,7 @@
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="6">
         <v>10.420999999999999</v>
       </c>
@@ -14205,7 +14205,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="15">
         <v>18.103000000000002</v>
       </c>
@@ -14295,7 +14295,7 @@
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="3">
@@ -14387,7 +14387,7 @@
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="5">
         <v>-1.917</v>
       </c>
@@ -14477,7 +14477,7 @@
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="5">
         <v>-0.64600000000000002</v>
       </c>
@@ -14567,7 +14567,7 @@
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="7">
         <v>-6.6</v>
       </c>
@@ -14657,7 +14657,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="5">
         <v>-1.5509999999999999</v>
       </c>
@@ -14747,7 +14747,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="16">
         <v>13.04</v>
       </c>
@@ -14837,7 +14837,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3">
@@ -14929,7 +14929,7 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="5">
         <v>1.9950000000000001</v>
       </c>
@@ -15019,7 +15019,7 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="5">
         <v>1.087</v>
       </c>
@@ -15109,7 +15109,7 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="5">
         <v>-1.7889999999999999</v>
       </c>
@@ -15199,7 +15199,7 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="5">
         <v>1.464</v>
       </c>
@@ -15289,7 +15289,7 @@
       </c>
     </row>
     <row r="56" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="18">
         <v>2.16</v>
       </c>
@@ -15379,7 +15379,7 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="3">
@@ -15471,7 +15471,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="5">
         <v>-1.1459999999999999</v>
       </c>
@@ -15561,7 +15561,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="5">
         <v>-4.3520000000000003</v>
       </c>
@@ -15651,7 +15651,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="5">
         <v>-3.2189999999999999</v>
       </c>
@@ -15741,7 +15741,7 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="7">
         <v>-9.86</v>
       </c>
@@ -15831,7 +15831,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="12">
         <v>4.2030000000000003</v>
       </c>
@@ -15921,7 +15921,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="3">
@@ -16013,7 +16013,7 @@
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="5">
         <v>3.9889999999999999</v>
       </c>
@@ -16103,7 +16103,7 @@
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="5">
         <v>0.99099999999999999</v>
       </c>
@@ -16193,7 +16193,7 @@
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="5">
         <v>0.94099999999999995</v>
       </c>
@@ -16283,7 +16283,7 @@
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="5">
         <v>-1.353</v>
       </c>
@@ -16373,7 +16373,7 @@
       </c>
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="17">
         <v>-5.492</v>
       </c>
@@ -16463,7 +16463,7 @@
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="20">
@@ -16555,7 +16555,7 @@
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="5">
         <v>0.96799999999999997</v>
       </c>
@@ -16645,7 +16645,7 @@
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="5">
         <v>3.3740000000000001</v>
       </c>
@@ -16735,7 +16735,7 @@
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="5">
         <v>3.577</v>
       </c>
@@ -16825,7 +16825,7 @@
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="5">
         <v>2.8690000000000002</v>
       </c>
@@ -16915,7 +16915,7 @@
       </c>
     </row>
     <row r="74" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="56"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="18">
         <v>3.3439999999999999</v>
       </c>
@@ -20088,35 +20088,35 @@
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!F4")+INDIRECT("'"&amp;$A$1&amp;"'!B4")+INDIRECT("'"&amp;$A$1&amp;"'!J4"))/3</f>
         <v>0.72777777777777775</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!G4")+INDIRECT("'"&amp;$A$1&amp;"'!B4")+INDIRECT("'"&amp;$A$1&amp;"'!K4"))/3</f>
         <v>0.68333333333333324</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C4")+INDIRECT("'"&amp;$A$1&amp;"'!F4")+INDIRECT("'"&amp;$A$1&amp;"'!l4"))/3</f>
         <v>0.53333333333333321</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C4")+INDIRECT("'"&amp;$A$1&amp;"'!G4")+INDIRECT("'"&amp;$A$1&amp;"'!M4"))/3</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D4")+INDIRECT("'"&amp;$A$1&amp;"'!H4")+INDIRECT("'"&amp;$A$1&amp;"'!J4"))/3</f>
         <v>0.53888888888888886</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D4")+INDIRECT("'"&amp;$A$1&amp;"'!I4")+INDIRECT("'"&amp;$A$1&amp;"'!K4"))/3</f>
         <v>0.51111111111111107</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E4")+INDIRECT("'"&amp;$A$1&amp;"'!H4")+INDIRECT("'"&amp;$A$1&amp;"'!L4"))/3</f>
         <v>0.42777777777777776</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E4")+INDIRECT("'"&amp;$A$1&amp;"'!I4")+INDIRECT("'"&amp;$A$1&amp;"'!M4"))/3</f>
         <v>0.46666666666666662</v>
       </c>
@@ -20125,35 +20125,35 @@
       <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!F5")+INDIRECT("'"&amp;$A$1&amp;"'!B5")+INDIRECT("'"&amp;$A$1&amp;"'!J5"))/3</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!G5")+INDIRECT("'"&amp;$A$1&amp;"'!B5")+INDIRECT("'"&amp;$A$1&amp;"'!K5"))/3</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C5")+INDIRECT("'"&amp;$A$1&amp;"'!F5")+INDIRECT("'"&amp;$A$1&amp;"'!l5"))/3</f>
         <v>0.25</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C5")+INDIRECT("'"&amp;$A$1&amp;"'!G5")+INDIRECT("'"&amp;$A$1&amp;"'!M5"))/3</f>
         <v>0.2722222222222222</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D5")+INDIRECT("'"&amp;$A$1&amp;"'!H5")+INDIRECT("'"&amp;$A$1&amp;"'!J5"))/3</f>
         <v>0.3</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D5")+INDIRECT("'"&amp;$A$1&amp;"'!I5")+INDIRECT("'"&amp;$A$1&amp;"'!K5"))/3</f>
         <v>0.33888888888888885</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E5")+INDIRECT("'"&amp;$A$1&amp;"'!H5")+INDIRECT("'"&amp;$A$1&amp;"'!L5"))/3</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E5")+INDIRECT("'"&amp;$A$1&amp;"'!I5")+INDIRECT("'"&amp;$A$1&amp;"'!M5"))/3</f>
         <v>0.35000000000000003</v>
       </c>
@@ -20180,35 +20180,35 @@
       <c r="A4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!F6")+INDIRECT("'"&amp;$A$1&amp;"'!B6")+INDIRECT("'"&amp;$A$1&amp;"'!J6"))/3</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!G6")+INDIRECT("'"&amp;$A$1&amp;"'!B6")+INDIRECT("'"&amp;$A$1&amp;"'!K6"))/3</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C6")+INDIRECT("'"&amp;$A$1&amp;"'!F6")+INDIRECT("'"&amp;$A$1&amp;"'!l6"))/3</f>
         <v>0.12222222222222223</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C6")+INDIRECT("'"&amp;$A$1&amp;"'!G6")+INDIRECT("'"&amp;$A$1&amp;"'!M6"))/3</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D6")+INDIRECT("'"&amp;$A$1&amp;"'!H6")+INDIRECT("'"&amp;$A$1&amp;"'!J6"))/3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D6")+INDIRECT("'"&amp;$A$1&amp;"'!I6")+INDIRECT("'"&amp;$A$1&amp;"'!K6"))/3</f>
         <v>8.8888888888888906E-2</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E6")+INDIRECT("'"&amp;$A$1&amp;"'!H6")+INDIRECT("'"&amp;$A$1&amp;"'!L6"))/3</f>
         <v>0.15</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E6")+INDIRECT("'"&amp;$A$1&amp;"'!I6")+INDIRECT("'"&amp;$A$1&amp;"'!M6"))/3</f>
         <v>0.14444444444444446</v>
       </c>
@@ -20232,35 +20232,35 @@
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!F7")+INDIRECT("'"&amp;$A$1&amp;"'!B7")+INDIRECT("'"&amp;$A$1&amp;"'!J7"))/3</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!G7")+INDIRECT("'"&amp;$A$1&amp;"'!B7")+INDIRECT("'"&amp;$A$1&amp;"'!K7"))/3</f>
         <v>2.777777777777778E-2</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C7")+INDIRECT("'"&amp;$A$1&amp;"'!F7")+INDIRECT("'"&amp;$A$1&amp;"'!l7"))/3</f>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!C7")+INDIRECT("'"&amp;$A$1&amp;"'!G7")+INDIRECT("'"&amp;$A$1&amp;"'!M7"))/3</f>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D7")+INDIRECT("'"&amp;$A$1&amp;"'!H7")+INDIRECT("'"&amp;$A$1&amp;"'!J7"))/3</f>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!D7")+INDIRECT("'"&amp;$A$1&amp;"'!I7")+INDIRECT("'"&amp;$A$1&amp;"'!K7"))/3</f>
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E7")+INDIRECT("'"&amp;$A$1&amp;"'!H7")+INDIRECT("'"&amp;$A$1&amp;"'!L7"))/3</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$1&amp;"'!E7")+INDIRECT("'"&amp;$A$1&amp;"'!I7")+INDIRECT("'"&amp;$A$1&amp;"'!M7"))/3</f>
         <v>3.888888888888889E-2</v>
       </c>
@@ -20334,35 +20334,35 @@
       <c r="A10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F4")+INDIRECT("'"&amp;$A$9&amp;"'!B4")+INDIRECT("'"&amp;$A$9&amp;"'!J4"))/3</f>
         <v>0.63333333333333341</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G4")+INDIRECT("'"&amp;$A$9&amp;"'!B4")+INDIRECT("'"&amp;$A$9&amp;"'!K4"))/3</f>
         <v>0.65</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F4")+INDIRECT("'"&amp;$A$9&amp;"'!C4")+INDIRECT("'"&amp;$A$9&amp;"'!I4"))/3</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G4")+INDIRECT("'"&amp;$A$9&amp;"'!C4")+INDIRECT("'"&amp;$A$9&amp;"'!M4"))/3</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D4")+INDIRECT("'"&amp;$A$9&amp;"'!H4")+INDIRECT("'"&amp;$A$9&amp;"'!J4"))/3</f>
         <v>0.62222222222222212</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D4")+INDIRECT("'"&amp;$A$9&amp;"'!I4")+INDIRECT("'"&amp;$A$9&amp;"'!K4"))/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E4")+INDIRECT("'"&amp;$A$9&amp;"'!H4")+INDIRECT("'"&amp;$A$9&amp;"'!L4"))/3</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E4")+INDIRECT("'"&amp;$A$9&amp;"'!I4")+INDIRECT("'"&amp;$A$9&amp;"'!M4"))/3</f>
         <v>0.45555555555555555</v>
       </c>
@@ -20375,35 +20375,35 @@
       <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F5")+INDIRECT("'"&amp;$A$9&amp;"'!B5")+INDIRECT("'"&amp;$A$9&amp;"'!J5"))/3</f>
         <v>0.15</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G5")+INDIRECT("'"&amp;$A$9&amp;"'!B5")+INDIRECT("'"&amp;$A$9&amp;"'!K5"))/3</f>
         <v>0.18333333333333332</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F5")+INDIRECT("'"&amp;$A$9&amp;"'!C5")+INDIRECT("'"&amp;$A$9&amp;"'!I5"))/3</f>
         <v>0.27777777777777773</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G5")+INDIRECT("'"&amp;$A$9&amp;"'!C5")+INDIRECT("'"&amp;$A$9&amp;"'!M5"))/3</f>
         <v>0.31111111111111106</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D5")+INDIRECT("'"&amp;$A$9&amp;"'!H5")+INDIRECT("'"&amp;$A$9&amp;"'!J5"))/3</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D5")+INDIRECT("'"&amp;$A$9&amp;"'!I5")+INDIRECT("'"&amp;$A$9&amp;"'!K5"))/3</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E5")+INDIRECT("'"&amp;$A$9&amp;"'!H5")+INDIRECT("'"&amp;$A$9&amp;"'!L5"))/3</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E5")+INDIRECT("'"&amp;$A$9&amp;"'!I5")+INDIRECT("'"&amp;$A$9&amp;"'!M5"))/3</f>
         <v>0.32777777777777778</v>
       </c>
@@ -20412,35 +20412,35 @@
       <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F6")+INDIRECT("'"&amp;$A$9&amp;"'!B6")+INDIRECT("'"&amp;$A$9&amp;"'!J6"))/3</f>
         <v>0.10555555555555556</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G6")+INDIRECT("'"&amp;$A$9&amp;"'!B6")+INDIRECT("'"&amp;$A$9&amp;"'!K6"))/3</f>
         <v>0.12222222222222222</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F6")+INDIRECT("'"&amp;$A$9&amp;"'!C6")+INDIRECT("'"&amp;$A$9&amp;"'!I6"))/3</f>
         <v>0.18333333333333332</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G6")+INDIRECT("'"&amp;$A$9&amp;"'!C6")+INDIRECT("'"&amp;$A$9&amp;"'!M6"))/3</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D6")+INDIRECT("'"&amp;$A$9&amp;"'!H6")+INDIRECT("'"&amp;$A$9&amp;"'!J6"))/3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D6")+INDIRECT("'"&amp;$A$9&amp;"'!I6")+INDIRECT("'"&amp;$A$9&amp;"'!K6"))/3</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E6")+INDIRECT("'"&amp;$A$9&amp;"'!H6")+INDIRECT("'"&amp;$A$9&amp;"'!L6"))/3</f>
         <v>0.13888888888888887</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E6")+INDIRECT("'"&amp;$A$9&amp;"'!I6")+INDIRECT("'"&amp;$A$9&amp;"'!M6"))/3</f>
         <v>0.12222222222222223</v>
       </c>
@@ -20461,35 +20461,35 @@
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F7")+INDIRECT("'"&amp;$A$9&amp;"'!B7")+INDIRECT("'"&amp;$A$9&amp;"'!J7"))/3</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G7")+INDIRECT("'"&amp;$A$9&amp;"'!B7")+INDIRECT("'"&amp;$A$9&amp;"'!K7"))/3</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!F7")+INDIRECT("'"&amp;$A$9&amp;"'!C7")+INDIRECT("'"&amp;$A$9&amp;"'!I7"))/3</f>
         <v>0.18888888888888888</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!G7")+INDIRECT("'"&amp;$A$9&amp;"'!C7")+INDIRECT("'"&amp;$A$9&amp;"'!M7"))/3</f>
         <v>0.13888888888888887</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D7")+INDIRECT("'"&amp;$A$9&amp;"'!H7")+INDIRECT("'"&amp;$A$9&amp;"'!J7"))/3</f>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!D7")+INDIRECT("'"&amp;$A$9&amp;"'!I7")+INDIRECT("'"&amp;$A$9&amp;"'!K7"))/3</f>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E7")+INDIRECT("'"&amp;$A$9&amp;"'!H7")+INDIRECT("'"&amp;$A$9&amp;"'!L7"))/3</f>
         <v>0.10555555555555556</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="54">
         <f ca="1">(INDIRECT("'"&amp;$A$9&amp;"'!E7")+INDIRECT("'"&amp;$A$9&amp;"'!I7")+INDIRECT("'"&amp;$A$9&amp;"'!M7"))/3</f>
         <v>9.4444444444444442E-2</v>
       </c>
@@ -20504,13 +20504,13 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
       <c r="L14">
         <v>3</v>
       </c>

--- a/Meas/figs858/diff858.xlsx
+++ b/Meas/figs858/diff858.xlsx
@@ -10529,7 +10529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
